--- a/proposal/dcache/plots/lookup-breakdown-combined.xlsx
+++ b/proposal/dcache/plots/lookup-breakdown-combined.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/chiache-thesis/proposal/dcache/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -248,7 +251,7 @@
           <c:x val="0.177558235511895"/>
           <c:y val="0.0778531448629162"/>
           <c:w val="0.748672751863977"/>
-          <c:h val="0.703497790302208"/>
+          <c:h val="0.745963269261594"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -774,11 +777,11 @@
         </c:dLbls>
         <c:gapWidth val="60"/>
         <c:overlap val="100"/>
-        <c:axId val="-2080513632"/>
-        <c:axId val="-2092995520"/>
+        <c:axId val="2080314480"/>
+        <c:axId val="2080330496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2080513632"/>
+        <c:axId val="2080314480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092995520"/>
+        <c:crossAx val="2080330496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -825,7 +828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092995520"/>
+        <c:axId val="2080330496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080513632"/>
+        <c:crossAx val="2080314480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,13 +1125,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>155222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>522111</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>7055</xdr:rowOff>
     </xdr:to>
@@ -1156,12 +1159,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.1643</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.17191</cdr:x>
+      <cdr:y>0.83451</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.23895</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.24656</cdr:x>
+      <cdr:y>0.95087</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1170,8 +1173,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1059745" y="2527300"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="1434867" y="2608361"/>
+          <a:ext cx="623083" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1308,12 +1311,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25509</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.24495</cdr:x>
+      <cdr:y>0.83</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.32974</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.3196</cdr:x>
+      <cdr:y>0.94636</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1322,8 +1325,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1645355" y="2527301"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="2044499" y="2594250"/>
+          <a:ext cx="623083" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1460,12 +1463,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.37103</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.37864</cdr:x>
+      <cdr:y>0.83225</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.44569</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.4533</cdr:x>
+      <cdr:y>0.94861</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1474,8 +1477,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2393244" y="2527300"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="3160384" y="2601305"/>
+          <a:ext cx="623167" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1612,12 +1615,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.46182</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.44491</cdr:x>
+      <cdr:y>0.82774</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.53648</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.51957</cdr:x>
+      <cdr:y>0.9441</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1626,8 +1629,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2978854" y="2527301"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="3713572" y="2587194"/>
+          <a:ext cx="623166" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1764,12 +1767,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.57559</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.5832</cdr:x>
+      <cdr:y>0.83225</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65024</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.65785</cdr:x>
+      <cdr:y>0.94861</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1778,8 +1781,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3712634" y="2527300"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="4867789" y="2601304"/>
+          <a:ext cx="623083" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1916,12 +1919,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.66637</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.652</cdr:x>
+      <cdr:y>0.83</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.74103</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.72666</cdr:x>
+      <cdr:y>0.94636</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1930,8 +1933,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4298244" y="2527301"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="5442061" y="2594250"/>
+          <a:ext cx="623166" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2068,12 +2071,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77795</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.7864</cdr:x>
+      <cdr:y>0.83451</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.8526</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.86105</cdr:x>
+      <cdr:y>0.95087</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2082,8 +2085,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5017911" y="2527300"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="6563888" y="2608360"/>
+          <a:ext cx="623083" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2220,12 +2223,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.86874</cdr:x>
-      <cdr:y>0.79388</cdr:y>
+      <cdr:x>0.85437</cdr:x>
+      <cdr:y>0.83</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94339</cdr:x>
-      <cdr:y>0.91024</cdr:y>
+      <cdr:x>0.92902</cdr:x>
+      <cdr:y>0.94636</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2234,8 +2237,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5603521" y="2527301"/>
-          <a:ext cx="481540" cy="370419"/>
+          <a:off x="7131187" y="2594248"/>
+          <a:ext cx="623083" cy="363696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3094,7 +3097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
